--- a/data/trans_camb/P25_9-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 7,65</t>
+          <t>-4,9; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,91</t>
+          <t>-6,11; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,82</t>
+          <t>-2,83; 15,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 7,52</t>
+          <t>-11,52; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 3,31</t>
+          <t>-11,36; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 2,8</t>
+          <t>-2,57; 20,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 6,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 6,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 16,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>40,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 118,66</t>
+          <t>-35,25; 196,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 92,11</t>
+          <t>-41,16; 135,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 115,71</t>
+          <t>-21,97; 247,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 13,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 6,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 26,6</t>
+          <t>-31,73; 27,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 15,96</t>
+          <t>-29,72; 30,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 14,76</t>
+          <t>-7,47; 76,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 31,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 38,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,1; 37,76</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 88,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,9</t>
+          <t>-3,57; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,48</t>
+          <t>-4,23; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,65</t>
+          <t>-2,18; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,82</t>
+          <t>-5,7; 6,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,65</t>
+          <t>-7,35; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,89</t>
+          <t>-2,44; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 3,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 1,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 6,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>-27,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-15,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,78; 99,42</t>
+          <t>-59,73; 116,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 88,53</t>
+          <t>-64,66; 68,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 160,83</t>
+          <t>-36,37; 147,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 33,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 31,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 48,85</t>
+          <t>-27,01; 45,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 30,14</t>
+          <t>-33,78; 30,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 21,74</t>
+          <t>-12,97; 69,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 47,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 36,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,82; 16,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; 69,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,43</t>
+          <t>-5,12; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,28</t>
+          <t>-4,14; 1,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,79</t>
+          <t>-4,73; 0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 3,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,15</t>
+          <t>-6,43; 4,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,47</t>
+          <t>-7,76; 1,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,67</t>
+          <t>-6,28; 5,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 1,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 1,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 1,93</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-55,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>-23,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-36,15%</t>
+          <t>-44,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-19,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,1%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-11,54%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,24; 70,38</t>
+          <t>-83,32; 9,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,98; 48,48</t>
+          <t>-63,44; 62,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,09; 67,92</t>
+          <t>-82,63; 47,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 42,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 35,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 20,48</t>
+          <t>-35,4; 34,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 34,99</t>
+          <t>-42,49; 13,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 23,58</t>
+          <t>-34,56; 43,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 18,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,38; 17,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,83; 13,74</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-38,62; 24,39</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,18</t>
+          <t>-3,99; 3,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,85</t>
+          <t>-2,23; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,88</t>
+          <t>-4,7; 6,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,17</t>
+          <t>2,12; 14,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 3,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 8,58</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 51,08</t>
+          <t>-54,26; 88,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 38,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 86,49</t>
+          <t>-36,0; 121,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 16,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 10,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 33,23</t>
+          <t>-24,52; 39,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 16,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 10,57</t>
+          <t>10,87; 91,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 37,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-23,19; 38,86</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 86,93</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 1,97</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 1,44</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,64</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 3,04</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 2,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 8,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 1,81</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 1,19</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 5,61</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,45%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>29,13%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-32,54; 44,64</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 32,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 81,32</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; 17,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 13,6</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 49,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 16,18</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; 10,62</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 51,03</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
